--- a/variant_10/Задание 9/9.xlsx
+++ b/variant_10/Задание 9/9.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josef\YandexDisk\BeeGeek\ИНформатика\2020-2021\Варианты\6 вариант\Файлы\Задание 9\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76487C6A-866C-4C45-A164-40CFB76F5C9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист3" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,12 +19,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,7 +127,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -185,7 +179,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -379,23 +373,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="Q56" sqref="A1:Y92"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -469,7 +463,7 @@
         <v>0.95833333333333304</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27">
       <c r="A2" s="2">
         <v>43191</v>
       </c>
@@ -546,7 +540,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27">
       <c r="A3" s="2">
         <v>43192</v>
       </c>
@@ -623,7 +617,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27">
       <c r="A4" s="2">
         <v>43193</v>
       </c>
@@ -700,7 +694,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27">
       <c r="A5" s="2">
         <v>43194</v>
       </c>
@@ -777,7 +771,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27">
       <c r="A6" s="2">
         <v>43195</v>
       </c>
@@ -854,7 +848,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27">
       <c r="A7" s="2">
         <v>43196</v>
       </c>
@@ -931,7 +925,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27">
       <c r="A8" s="2">
         <v>43197</v>
       </c>
@@ -1008,7 +1002,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27">
       <c r="A9" s="2">
         <v>43198</v>
       </c>
@@ -1086,7 +1080,7 @@
       </c>
       <c r="AA9" s="4"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27">
       <c r="A10" s="2">
         <v>43199</v>
       </c>
@@ -1163,7 +1157,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27">
       <c r="A11" s="2">
         <v>43200</v>
       </c>
@@ -1240,7 +1234,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27">
       <c r="A12" s="2">
         <v>43201</v>
       </c>
@@ -1317,7 +1311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27">
       <c r="A13" s="2">
         <v>43202</v>
       </c>
@@ -1394,7 +1388,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27">
       <c r="A14" s="2">
         <v>43203</v>
       </c>
@@ -1471,7 +1465,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27">
       <c r="A15" s="2">
         <v>43204</v>
       </c>
@@ -1548,7 +1542,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27">
       <c r="A16" s="2">
         <v>43205</v>
       </c>
@@ -1625,7 +1619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="A17" s="2">
         <v>43206</v>
       </c>
@@ -1702,7 +1696,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="A18" s="2">
         <v>43207</v>
       </c>
@@ -1779,7 +1773,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="A19" s="2">
         <v>43208</v>
       </c>
@@ -1856,7 +1850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="A20" s="2">
         <v>43209</v>
       </c>
@@ -1933,7 +1927,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="A21" s="2">
         <v>43210</v>
       </c>
@@ -2010,7 +2004,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="A22" s="2">
         <v>43211</v>
       </c>
@@ -2087,7 +2081,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="A23" s="2">
         <v>43212</v>
       </c>
@@ -2164,7 +2158,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25">
       <c r="A24" s="2">
         <v>43213</v>
       </c>
@@ -2241,7 +2235,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="A25" s="2">
         <v>43214</v>
       </c>
@@ -2318,7 +2312,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25">
       <c r="A26" s="2">
         <v>43215</v>
       </c>
@@ -2395,7 +2389,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25">
       <c r="A27" s="2">
         <v>43216</v>
       </c>
@@ -2472,7 +2466,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25">
       <c r="A28" s="2">
         <v>43217</v>
       </c>
@@ -2549,7 +2543,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="A29" s="2">
         <v>43218</v>
       </c>
@@ -2626,7 +2620,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="A30" s="2">
         <v>43219</v>
       </c>
@@ -2703,7 +2697,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="A31" s="2">
         <v>43220</v>
       </c>
@@ -2780,7 +2774,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="A32" s="2">
         <v>43221</v>
       </c>
@@ -2857,7 +2851,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25">
       <c r="A33" s="2">
         <v>43222</v>
       </c>
@@ -2934,7 +2928,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25">
       <c r="A34" s="2">
         <v>43223</v>
       </c>
@@ -3011,7 +3005,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25">
       <c r="A35" s="2">
         <v>43224</v>
       </c>
@@ -3088,7 +3082,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="A36" s="2">
         <v>43225</v>
       </c>
@@ -3165,7 +3159,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25">
       <c r="A37" s="2">
         <v>43226</v>
       </c>
@@ -3242,7 +3236,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25">
       <c r="A38" s="2">
         <v>43227</v>
       </c>
@@ -3319,7 +3313,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25">
       <c r="A39" s="2">
         <v>43228</v>
       </c>
@@ -3396,7 +3390,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25">
       <c r="A40" s="2">
         <v>43229</v>
       </c>
@@ -3473,7 +3467,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25">
       <c r="A41" s="2">
         <v>43230</v>
       </c>
@@ -3550,7 +3544,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25">
       <c r="A42" s="2">
         <v>43231</v>
       </c>
@@ -3627,7 +3621,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25">
       <c r="A43" s="2">
         <v>43232</v>
       </c>
@@ -3704,7 +3698,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25">
       <c r="A44" s="2">
         <v>43233</v>
       </c>
@@ -3781,7 +3775,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25">
       <c r="A45" s="2">
         <v>43234</v>
       </c>
@@ -3858,7 +3852,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25">
       <c r="A46" s="2">
         <v>43235</v>
       </c>
@@ -3935,7 +3929,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25">
       <c r="A47" s="2">
         <v>43236</v>
       </c>
@@ -4012,7 +4006,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25">
       <c r="A48" s="2">
         <v>43237</v>
       </c>
@@ -4089,7 +4083,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25">
       <c r="A49" s="2">
         <v>43238</v>
       </c>
@@ -4166,7 +4160,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25">
       <c r="A50" s="2">
         <v>43239</v>
       </c>
@@ -4243,7 +4237,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25">
       <c r="A51" s="2">
         <v>43240</v>
       </c>
@@ -4320,7 +4314,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25">
       <c r="A52" s="2">
         <v>43241</v>
       </c>
@@ -4397,7 +4391,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25">
       <c r="A53" s="2">
         <v>43242</v>
       </c>
@@ -4474,7 +4468,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25">
       <c r="A54" s="2">
         <v>43243</v>
       </c>
@@ -4551,7 +4545,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25">
       <c r="A55" s="2">
         <v>43244</v>
       </c>
@@ -4628,7 +4622,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25">
       <c r="A56" s="2">
         <v>43245</v>
       </c>
@@ -4705,7 +4699,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25">
       <c r="A57" s="2">
         <v>43246</v>
       </c>
@@ -4782,7 +4776,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25">
       <c r="A58" s="2">
         <v>43247</v>
       </c>
@@ -4859,7 +4853,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25">
       <c r="A59" s="2">
         <v>43248</v>
       </c>
@@ -4936,7 +4930,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25">
       <c r="A60" s="2">
         <v>43249</v>
       </c>
@@ -5013,7 +5007,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25">
       <c r="A61" s="2">
         <v>43250</v>
       </c>
@@ -5090,7 +5084,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25">
       <c r="A62" s="2">
         <v>43251</v>
       </c>
@@ -5167,7 +5161,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25">
       <c r="A63" s="2">
         <v>43252</v>
       </c>
@@ -5244,7 +5238,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25">
       <c r="A64" s="2">
         <v>43253</v>
       </c>
@@ -5321,7 +5315,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25">
       <c r="A65" s="2">
         <v>43254</v>
       </c>
@@ -5398,7 +5392,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25">
       <c r="A66" s="2">
         <v>43255</v>
       </c>
@@ -5475,7 +5469,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25">
       <c r="A67" s="2">
         <v>43256</v>
       </c>
@@ -5552,7 +5546,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25">
       <c r="A68" s="2">
         <v>43257</v>
       </c>
@@ -5629,7 +5623,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25">
       <c r="A69" s="2">
         <v>43258</v>
       </c>
@@ -5706,7 +5700,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25">
       <c r="A70" s="2">
         <v>43259</v>
       </c>
@@ -5783,7 +5777,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25">
       <c r="A71" s="2">
         <v>43260</v>
       </c>
@@ -5860,7 +5854,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25">
       <c r="A72" s="2">
         <v>43261</v>
       </c>
@@ -5937,7 +5931,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25">
       <c r="A73" s="2">
         <v>43262</v>
       </c>
@@ -6014,7 +6008,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25">
       <c r="A74" s="2">
         <v>43263</v>
       </c>
@@ -6091,7 +6085,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25">
       <c r="A75" s="2">
         <v>43264</v>
       </c>
@@ -6168,7 +6162,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25">
       <c r="A76" s="2">
         <v>43265</v>
       </c>
@@ -6245,7 +6239,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25">
       <c r="A77" s="2">
         <v>43266</v>
       </c>
@@ -6322,7 +6316,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25">
       <c r="A78" s="2">
         <v>43267</v>
       </c>
@@ -6399,7 +6393,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25">
       <c r="A79" s="2">
         <v>43268</v>
       </c>
@@ -6476,7 +6470,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25">
       <c r="A80" s="2">
         <v>43269</v>
       </c>
@@ -6553,7 +6547,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25">
       <c r="A81" s="2">
         <v>43270</v>
       </c>
@@ -6630,7 +6624,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25">
       <c r="A82" s="2">
         <v>43271</v>
       </c>
@@ -6707,7 +6701,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25">
       <c r="A83" s="2">
         <v>43272</v>
       </c>
@@ -6784,7 +6778,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25">
       <c r="A84" s="2">
         <v>43273</v>
       </c>
@@ -6861,7 +6855,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25">
       <c r="A85" s="2">
         <v>43274</v>
       </c>
@@ -6938,7 +6932,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25">
       <c r="A86" s="2">
         <v>43275</v>
       </c>
@@ -7015,7 +7009,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25">
       <c r="A87" s="2">
         <v>43276</v>
       </c>
@@ -7092,7 +7086,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25">
       <c r="A88" s="2">
         <v>43277</v>
       </c>
@@ -7169,7 +7163,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25">
       <c r="A89" s="2">
         <v>43278</v>
       </c>
@@ -7246,7 +7240,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25">
       <c r="A90" s="2">
         <v>43279</v>
       </c>
@@ -7323,7 +7317,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25">
       <c r="A91" s="2">
         <v>43280</v>
       </c>
@@ -7400,7 +7394,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25">
       <c r="A92" s="2">
         <v>43281</v>
       </c>
@@ -7477,13 +7471,19 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25">
+      <c r="D94">
+        <f>COUNTIF(B2:Y92,"&lt;=20")</f>
+        <v>655</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25">
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25">
       <c r="C96" s="3"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3">
       <c r="C97" s="5"/>
     </row>
   </sheetData>
